--- a/Exceltestfiles/mi_cmd - 副本.xlsx
+++ b/Exceltestfiles/mi_cmd - 副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xjh_program\vs_program\c#\winformapp\ExcelConvert\Exceltestfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E408C948-88F7-40FA-B6DB-01B99F9CB2E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D0F64-9AF7-4619-BC20-0FAAC1F04316}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="465" windowWidth="12435" windowHeight="14895" activeTab="1" xr2:uid="{B5CB11EF-3A4F-429E-B062-475C2C0FB261}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B5CB11EF-3A4F-429E-B062-475C2C0FB261}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC3-VIN" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="794">
   <si>
     <t>Group</t>
   </si>
@@ -3925,9 +3925,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>name1</t>
-  </si>
-  <si>
     <t>name2</t>
   </si>
   <si>
@@ -3970,9 +3967,6 @@
   <si>
     <t>w</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>name12</t>
   </si>
   <si>
     <t>name13</t>
@@ -4161,6 +4155,10 @@
   </si>
   <si>
     <t>[31:4]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5065,33 +5063,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5110,6 +5108,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5130,24 +5146,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7999,10 +7997,16 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="96" t="s">
@@ -8079,15 +8083,15 @@
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="58" t="s">
+        <v>744</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>745</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>746</v>
       </c>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
       <c r="H4" s="58" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I4" s="58"/>
       <c r="J4" s="58"/>
@@ -8101,10 +8105,10 @@
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="58" t="s">
-        <v>736</v>
+        <v>793</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
@@ -8123,10 +8127,10 @@
       </c>
       <c r="C6" s="58"/>
       <c r="D6" s="58" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F6" s="58"/>
       <c r="G6" s="58"/>
@@ -8145,10 +8149,10 @@
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
@@ -8167,10 +8171,10 @@
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="58" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F8" s="58"/>
       <c r="G8" s="58"/>
@@ -8189,10 +8193,10 @@
       </c>
       <c r="C9" s="58"/>
       <c r="D9" s="58" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F9" s="58"/>
       <c r="G9" s="58"/>
@@ -8211,15 +8215,15 @@
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="58" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="58"/>
       <c r="H10" s="58" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
@@ -8233,10 +8237,10 @@
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F11" s="58"/>
       <c r="G11" s="58"/>
@@ -8255,10 +8259,10 @@
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="58" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F12" s="58"/>
       <c r="G12" s="58"/>
@@ -8272,20 +8276,20 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="58"/>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="130" t="s">
         <v>626</v>
       </c>
       <c r="C13" s="58"/>
       <c r="D13" s="58" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F13" s="58"/>
       <c r="G13" s="58"/>
       <c r="H13" s="58" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
@@ -8294,13 +8298,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="58"/>
-      <c r="B14" s="127"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="58"/>
       <c r="D14" s="58" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F14" s="58"/>
       <c r="G14" s="58"/>
@@ -8314,20 +8318,20 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="58"/>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="130" t="s">
         <v>115</v>
       </c>
       <c r="C15" s="58"/>
       <c r="D15" s="58" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F15" s="58"/>
       <c r="G15" s="58"/>
       <c r="H15" s="58" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I15" s="58"/>
       <c r="J15" s="58"/>
@@ -8336,18 +8340,18 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="58"/>
-      <c r="B16" s="127"/>
+      <c r="B16" s="130"/>
       <c r="C16" s="58"/>
       <c r="D16" s="58" t="s">
-        <v>750</v>
+        <v>793</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F16" s="58"/>
       <c r="G16" s="58"/>
       <c r="H16" s="58" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I16" s="58"/>
       <c r="J16" s="58"/>
@@ -8356,18 +8360,18 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="58"/>
-      <c r="B17" s="127"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="58"/>
       <c r="D17" s="58" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F17" s="58"/>
       <c r="G17" s="58"/>
       <c r="H17" s="58" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I17" s="58"/>
       <c r="J17" s="58"/>
@@ -8376,20 +8380,20 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="58"/>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="127" t="s">
         <v>125</v>
       </c>
       <c r="C18" s="58"/>
-      <c r="D18" s="128" t="s">
-        <v>754</v>
-      </c>
-      <c r="E18" s="128" t="s">
-        <v>755</v>
+      <c r="D18" s="127" t="s">
+        <v>752</v>
+      </c>
+      <c r="E18" s="127" t="s">
+        <v>753</v>
       </c>
       <c r="F18" s="58"/>
       <c r="G18" s="58"/>
-      <c r="H18" s="128" t="s">
-        <v>756</v>
+      <c r="H18" s="127" t="s">
+        <v>754</v>
       </c>
       <c r="I18" s="58"/>
       <c r="J18" s="58"/>
@@ -8398,13 +8402,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="58"/>
-      <c r="B19" s="129"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
       <c r="F19" s="58"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="129"/>
+      <c r="H19" s="128"/>
       <c r="I19" s="58"/>
       <c r="J19" s="58"/>
       <c r="K19" s="58"/>
@@ -8412,13 +8416,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="58"/>
-      <c r="B20" s="130"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="58"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="58"/>
       <c r="G20" s="58"/>
-      <c r="H20" s="130"/>
+      <c r="H20" s="129"/>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
       <c r="K20" s="58"/>
@@ -8426,20 +8430,20 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="58"/>
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="130" t="s">
         <v>131</v>
       </c>
       <c r="C21" s="58"/>
-      <c r="D21" s="128" t="s">
+      <c r="D21" s="127" t="s">
+        <v>755</v>
+      </c>
+      <c r="E21" s="127" t="s">
         <v>757</v>
-      </c>
-      <c r="E21" s="128" t="s">
-        <v>759</v>
       </c>
       <c r="F21" s="58"/>
       <c r="G21" s="58"/>
       <c r="H21" s="58" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I21" s="58"/>
       <c r="J21" s="58"/>
@@ -8448,14 +8452,14 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="58"/>
-      <c r="B22" s="127"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
       <c r="F22" s="58"/>
       <c r="G22" s="58"/>
       <c r="H22" s="58" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I22" s="58"/>
       <c r="J22" s="58"/>
@@ -8464,14 +8468,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="58"/>
-      <c r="B23" s="127"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="58"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
       <c r="F23" s="58"/>
       <c r="G23" s="58"/>
       <c r="H23" s="58" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I23" s="58"/>
       <c r="J23" s="58"/>
@@ -8480,14 +8484,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="58"/>
-      <c r="B24" s="127"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="58"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
       <c r="H24" s="58" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I24" s="58"/>
       <c r="J24" s="58"/>
@@ -8496,18 +8500,18 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="58"/>
-      <c r="B25" s="127"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="58"/>
-      <c r="D25" s="128" t="s">
-        <v>758</v>
+      <c r="D25" s="127" t="s">
+        <v>756</v>
       </c>
       <c r="E25" s="122" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="58"/>
       <c r="H25" s="58" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I25" s="58"/>
       <c r="J25" s="58"/>
@@ -8516,16 +8520,16 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="58"/>
-      <c r="B26" s="127"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="130"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="123" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F26" s="58"/>
       <c r="G26" s="58"/>
       <c r="H26" s="58" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I26" s="58"/>
       <c r="J26" s="58"/>
@@ -8538,16 +8542,16 @@
         <v>142</v>
       </c>
       <c r="C27" s="58"/>
-      <c r="D27" s="127" t="s">
-        <v>766</v>
+      <c r="D27" s="130" t="s">
+        <v>764</v>
       </c>
       <c r="E27" s="124" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F27" s="58"/>
       <c r="G27" s="58"/>
       <c r="H27" s="125" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I27" s="58"/>
       <c r="J27" s="58"/>
@@ -8557,17 +8561,17 @@
     <row r="28" spans="1:12">
       <c r="A28" s="58"/>
       <c r="B28" s="58" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C28" s="58"/>
-      <c r="D28" s="127"/>
+      <c r="D28" s="130"/>
       <c r="E28" s="124" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F28" s="58"/>
       <c r="G28" s="58"/>
       <c r="H28" s="125" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="I28" s="58"/>
       <c r="J28" s="58"/>
@@ -8577,17 +8581,17 @@
     <row r="29" spans="1:12">
       <c r="A29" s="58"/>
       <c r="B29" s="58" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C29" s="58"/>
-      <c r="D29" s="127"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="124" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
       <c r="H29" s="125" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="I29" s="58"/>
       <c r="J29" s="58"/>
@@ -8597,17 +8601,17 @@
     <row r="30" spans="1:12">
       <c r="A30" s="58"/>
       <c r="B30" s="58" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C30" s="58"/>
-      <c r="D30" s="127"/>
+      <c r="D30" s="130"/>
       <c r="E30" s="124" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
       <c r="H30" s="125" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I30" s="58"/>
       <c r="J30" s="58"/>
@@ -8617,17 +8621,17 @@
     <row r="31" spans="1:12">
       <c r="A31" s="58"/>
       <c r="B31" s="58" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C31" s="58"/>
-      <c r="D31" s="127"/>
+      <c r="D31" s="130"/>
       <c r="E31" s="124" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
       <c r="H31" s="125" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I31" s="58"/>
       <c r="J31" s="58"/>
@@ -8637,17 +8641,17 @@
     <row r="32" spans="1:12">
       <c r="A32" s="58"/>
       <c r="B32" s="58" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C32" s="58"/>
-      <c r="D32" s="127"/>
+      <c r="D32" s="130"/>
       <c r="E32" s="124" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
       <c r="H32" s="125" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I32" s="58"/>
       <c r="J32" s="58"/>
@@ -8661,7 +8665,7 @@
       </c>
       <c r="C33" s="58"/>
       <c r="D33" s="58" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
@@ -8689,19 +8693,19 @@
     <row r="36" spans="1:12">
       <c r="A36" s="58"/>
       <c r="B36" s="58" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C36" s="58"/>
       <c r="D36" s="58" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F36" s="58"/>
       <c r="G36" s="58"/>
       <c r="H36" s="58" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="I36" s="58"/>
       <c r="J36" s="58"/>
@@ -8716,7 +8720,7 @@
       <c r="C37" s="58"/>
       <c r="D37" s="58"/>
       <c r="E37" s="58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F37" s="58"/>
       <c r="G37" s="58"/>
@@ -8729,19 +8733,19 @@
     <row r="38" spans="1:12">
       <c r="A38" s="126"/>
       <c r="B38" s="126" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C38" s="126"/>
       <c r="D38" s="126" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E38" s="126" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F38" s="126"/>
       <c r="G38" s="126"/>
       <c r="H38" s="126" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I38" s="126"/>
       <c r="J38" s="126"/>
@@ -8764,17 +8768,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E21:E24"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8831,27 +8835,27 @@
       <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="131" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="133"/>
-      <c r="B3" s="131" t="s">
+      <c r="A3" s="132"/>
+      <c r="B3" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="131">
+      <c r="C3" s="135">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -8860,7 +8864,7 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="131"/>
+      <c r="F3" s="135"/>
       <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
@@ -8875,16 +8879,16 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="134"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="6" t="s">
         <v>412</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="131"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="6" t="s">
         <v>413</v>
       </c>
@@ -8899,16 +8903,16 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="134"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="6" t="s">
         <v>416</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="131"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
@@ -8923,16 +8927,16 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="134"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="6" t="s">
         <v>419</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="131"/>
+      <c r="F6" s="135"/>
       <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
@@ -8947,11 +8951,11 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="134"/>
-      <c r="B7" s="131" t="s">
+      <c r="A7" s="133"/>
+      <c r="B7" s="135" t="s">
         <v>422</v>
       </c>
-      <c r="C7" s="131">
+      <c r="C7" s="135">
         <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -8960,7 +8964,7 @@
       <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="131" t="s">
+      <c r="F7" s="135" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -8977,16 +8981,16 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="134"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="6" t="s">
         <v>425</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="131"/>
+      <c r="F8" s="135"/>
       <c r="G8" s="6" t="s">
         <v>55</v>
       </c>
@@ -9001,7 +9005,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="134"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="27" t="s">
         <v>61</v>
       </c>
@@ -9031,11 +9035,11 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="134"/>
-      <c r="B10" s="131" t="s">
+      <c r="A10" s="133"/>
+      <c r="B10" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="131">
+      <c r="C10" s="135">
         <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -9044,7 +9048,7 @@
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="131" t="s">
+      <c r="F10" s="135" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -9061,16 +9065,16 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="134"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="6" t="s">
         <v>433</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="131"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="6" t="s">
         <v>55</v>
       </c>
@@ -9085,11 +9089,11 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="134"/>
-      <c r="B12" s="131" t="s">
+      <c r="A12" s="133"/>
+      <c r="B12" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="131">
+      <c r="C12" s="135">
         <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -9098,7 +9102,7 @@
       <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="131" t="s">
+      <c r="F12" s="135" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -9115,16 +9119,16 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="134"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="6" t="s">
         <v>437</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="131"/>
+      <c r="F13" s="135"/>
       <c r="G13" s="6" t="s">
         <v>55</v>
       </c>
@@ -9139,11 +9143,11 @@
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="134"/>
-      <c r="B14" s="131" t="s">
+      <c r="A14" s="133"/>
+      <c r="B14" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="131">
+      <c r="C14" s="135">
         <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -9152,7 +9156,7 @@
       <c r="E14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="131" t="s">
+      <c r="F14" s="135" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -9169,16 +9173,16 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="134"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="6" t="s">
         <v>441</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="131"/>
+      <c r="F15" s="135"/>
       <c r="G15" s="6" t="s">
         <v>55</v>
       </c>
@@ -9193,7 +9197,7 @@
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="134"/>
+      <c r="A16" s="133"/>
       <c r="B16" s="27" t="s">
         <v>82</v>
       </c>
@@ -9223,7 +9227,7 @@
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="134"/>
+      <c r="A17" s="133"/>
       <c r="B17" s="27" t="s">
         <v>98</v>
       </c>
@@ -9253,7 +9257,7 @@
       <c r="L17" s="58"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="134"/>
+      <c r="A18" s="133"/>
       <c r="B18" s="27" t="s">
         <v>105</v>
       </c>
@@ -9283,7 +9287,7 @@
       <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="134"/>
+      <c r="A19" s="133"/>
       <c r="B19" s="27" t="s">
         <v>110</v>
       </c>
@@ -9313,7 +9317,7 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="134"/>
+      <c r="A20" s="133"/>
       <c r="B20" s="27" t="s">
         <v>115</v>
       </c>
@@ -9343,7 +9347,7 @@
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="134"/>
+      <c r="A21" s="133"/>
       <c r="B21" s="27" t="s">
         <v>125</v>
       </c>
@@ -9373,7 +9377,7 @@
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="135"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="27" t="s">
         <v>131</v>
       </c>
@@ -9403,7 +9407,7 @@
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="135" t="s">
         <v>268</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -9427,7 +9431,7 @@
       <c r="H23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="131" t="s">
+      <c r="I23" s="135" t="s">
         <v>271</v>
       </c>
       <c r="J23" s="6" t="s">
@@ -9437,7 +9441,7 @@
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="131"/>
+      <c r="A24" s="135"/>
       <c r="B24" s="27" t="s">
         <v>458</v>
       </c>
@@ -9459,7 +9463,7 @@
       <c r="H24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="131"/>
+      <c r="I24" s="135"/>
       <c r="J24" s="6" t="s">
         <v>460</v>
       </c>
@@ -9467,7 +9471,7 @@
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="131"/>
+      <c r="A25" s="135"/>
       <c r="B25" s="27" t="s">
         <v>461</v>
       </c>
@@ -9489,7 +9493,7 @@
       <c r="H25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="131"/>
+      <c r="I25" s="135"/>
       <c r="J25" s="6" t="s">
         <v>448</v>
       </c>
@@ -9498,6 +9502,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="B3:B6"/>
@@ -9508,15 +9521,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9615,8 +9619,8 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="140"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="6" t="s">
         <v>375</v>
       </c>
@@ -9636,8 +9640,8 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="140"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
       <c r="D5" s="6" t="s">
         <v>377</v>
       </c>
@@ -9657,8 +9661,8 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="140"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="6" t="s">
         <v>379</v>
       </c>
@@ -9678,8 +9682,8 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="140"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="6" t="s">
         <v>381</v>
       </c>
@@ -9699,8 +9703,8 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="140"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="6" t="s">
         <v>384</v>
       </c>
@@ -9720,10 +9724,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="140"/>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="131">
+      <c r="C9" s="135">
         <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -9745,8 +9749,8 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="140"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="6" t="s">
         <v>387</v>
       </c>
@@ -9766,8 +9770,8 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="140"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="6" t="s">
         <v>388</v>
       </c>
@@ -9787,8 +9791,8 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="140"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="6" t="s">
         <v>390</v>
       </c>
@@ -9808,8 +9812,8 @@
     </row>
     <row r="13" spans="1:12" s="59" customFormat="1">
       <c r="A13" s="140"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="6" t="s">
         <v>391</v>
       </c>
@@ -9829,10 +9833,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="140"/>
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="131">
+      <c r="C14" s="135">
         <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -9854,8 +9858,8 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="140"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="6" t="s">
         <v>393</v>
       </c>
@@ -9975,10 +9979,10 @@
     </row>
     <row r="20" spans="1:9" s="18" customFormat="1">
       <c r="A20" s="140"/>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="135" t="s">
         <v>405</v>
       </c>
-      <c r="C20" s="131">
+      <c r="C20" s="135">
         <v>27</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -9998,8 +10002,8 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="140"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
       <c r="D21" s="6" t="s">
         <v>407</v>
       </c>
@@ -10097,7 +10101,7 @@
       <c r="A2" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="153"/>
+      <c r="B2" s="142"/>
       <c r="C2" s="137"/>
       <c r="D2" s="137"/>
       <c r="E2" s="137"/>
@@ -10111,7 +10115,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="140"/>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="135" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="141">
@@ -10139,15 +10143,15 @@
     </row>
     <row r="4" spans="1:12" ht="13.5" thickBot="1">
       <c r="A4" s="140"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="134"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="134"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
@@ -10163,15 +10167,15 @@
     </row>
     <row r="5" spans="1:12" ht="13.5" thickBot="1">
       <c r="A5" s="140"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="134"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="133"/>
       <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="134"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
@@ -10187,15 +10191,15 @@
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A6" s="140"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="134"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="134"/>
+      <c r="F6" s="133"/>
       <c r="G6" s="15" t="s">
         <v>23</v>
       </c>
@@ -10209,15 +10213,15 @@
     </row>
     <row r="7" spans="1:12" ht="39" thickBot="1">
       <c r="A7" s="140"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="134"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="134"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="9" t="s">
         <v>27</v>
       </c>
@@ -10233,15 +10237,15 @@
     </row>
     <row r="8" spans="1:12" ht="13.5" thickBot="1">
       <c r="A8" s="140"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="134"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="21" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="134"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="21" t="s">
         <v>13</v>
       </c>
@@ -10257,15 +10261,15 @@
     </row>
     <row r="9" spans="1:12" ht="13.5" thickBot="1">
       <c r="A9" s="140"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="133"/>
       <c r="D9" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="134"/>
+      <c r="F9" s="133"/>
       <c r="G9" s="21" t="s">
         <v>13</v>
       </c>
@@ -10281,15 +10285,15 @@
     </row>
     <row r="10" spans="1:12" ht="13.5" thickBot="1">
       <c r="A10" s="140"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="134"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="133"/>
       <c r="D10" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="134"/>
+      <c r="F10" s="133"/>
       <c r="G10" s="21" t="s">
         <v>13</v>
       </c>
@@ -10305,15 +10309,15 @@
     </row>
     <row r="11" spans="1:12" ht="13.5" thickBot="1">
       <c r="A11" s="140"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="134"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="133"/>
       <c r="D11" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="134"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="21" t="s">
         <v>23</v>
       </c>
@@ -10329,15 +10333,15 @@
     </row>
     <row r="12" spans="1:12" ht="13.5" thickBot="1">
       <c r="A12" s="140"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="152"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="152"/>
+      <c r="F12" s="143"/>
       <c r="G12" s="21" t="s">
         <v>13</v>
       </c>
@@ -10409,10 +10413,10 @@
     </row>
     <row r="15" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A15" s="140"/>
-      <c r="B15" s="154" t="s">
+      <c r="B15" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="149">
+      <c r="C15" s="145">
         <v>26</v>
       </c>
       <c r="D15" s="39" t="s">
@@ -10421,7 +10425,7 @@
       <c r="E15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="149" t="s">
+      <c r="F15" s="145" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="39" t="s">
@@ -10437,15 +10441,15 @@
     </row>
     <row r="16" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A16" s="140"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="151"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="39" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="151"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="39" t="s">
         <v>55</v>
       </c>
@@ -10459,7 +10463,7 @@
     </row>
     <row r="17" spans="1:12" ht="13.5" thickBot="1">
       <c r="A17" s="140"/>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="135" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="141">
@@ -10489,15 +10493,15 @@
     </row>
     <row r="18" spans="1:12" ht="13.5" thickBot="1">
       <c r="A18" s="140"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="152"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="29" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="152"/>
+      <c r="F18" s="143"/>
       <c r="G18" s="29" t="s">
         <v>55</v>
       </c>
@@ -10513,7 +10517,7 @@
     </row>
     <row r="19" spans="1:12" ht="13.5" thickBot="1">
       <c r="A19" s="140"/>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="135" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="141">
@@ -10543,15 +10547,15 @@
     </row>
     <row r="20" spans="1:12" ht="13.5" thickBot="1">
       <c r="A20" s="140"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="152"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="29" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="152"/>
+      <c r="F20" s="143"/>
       <c r="G20" s="29" t="s">
         <v>55</v>
       </c>
@@ -10567,7 +10571,7 @@
     </row>
     <row r="21" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A21" s="140"/>
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="133" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="141">
@@ -10597,15 +10601,15 @@
     </row>
     <row r="22" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A22" s="140"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
       <c r="D22" s="29" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="152"/>
+      <c r="F22" s="143"/>
       <c r="G22" s="29" t="s">
         <v>55</v>
       </c>
@@ -10651,8 +10655,8 @@
     </row>
     <row r="24" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A24" s="140"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
       <c r="D24" s="29" t="s">
         <v>80</v>
       </c>
@@ -10707,15 +10711,15 @@
     </row>
     <row r="26" spans="1:12" ht="13.5" thickBot="1">
       <c r="A26" s="140"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="134"/>
+      <c r="F26" s="133"/>
       <c r="G26" s="29" t="s">
         <v>55</v>
       </c>
@@ -10731,15 +10735,15 @@
     </row>
     <row r="27" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A27" s="140"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="39" t="s">
         <v>88</v>
       </c>
       <c r="E27" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="134"/>
+      <c r="F27" s="133"/>
       <c r="G27" s="39" t="s">
         <v>89</v>
       </c>
@@ -10753,15 +10757,15 @@
     </row>
     <row r="28" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A28" s="140"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
       <c r="D28" s="39" t="s">
         <v>92</v>
       </c>
       <c r="E28" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="152"/>
+      <c r="F28" s="143"/>
       <c r="G28" s="39" t="s">
         <v>89</v>
       </c>
@@ -10775,8 +10779,8 @@
     </row>
     <row r="29" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A29" s="140"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
       <c r="D29" s="39" t="s">
         <v>95</v>
       </c>
@@ -10827,15 +10831,15 @@
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1">
       <c r="A31" s="140"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
       <c r="D31" s="29" t="s">
         <v>101</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="134"/>
+      <c r="F31" s="133"/>
       <c r="G31" s="29" t="s">
         <v>55</v>
       </c>
@@ -10851,15 +10855,15 @@
     </row>
     <row r="32" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A32" s="140"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
       <c r="D32" s="39" t="s">
         <v>88</v>
       </c>
       <c r="E32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="134"/>
+      <c r="F32" s="133"/>
       <c r="G32" s="39" t="s">
         <v>89</v>
       </c>
@@ -10873,15 +10877,15 @@
     </row>
     <row r="33" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A33" s="140"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="133"/>
       <c r="D33" s="39" t="s">
         <v>92</v>
       </c>
       <c r="E33" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="152"/>
+      <c r="F33" s="143"/>
       <c r="G33" s="39" t="s">
         <v>89</v>
       </c>
@@ -10895,8 +10899,8 @@
     </row>
     <row r="34" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A34" s="140"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="133"/>
       <c r="D34" s="39" t="s">
         <v>95</v>
       </c>
@@ -10917,10 +10921,10 @@
     </row>
     <row r="35" spans="1:12" ht="13.5" thickBot="1">
       <c r="A35" s="140"/>
-      <c r="B35" s="131" t="s">
+      <c r="B35" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="131"/>
+      <c r="C35" s="135"/>
       <c r="D35" s="29" t="s">
         <v>106</v>
       </c>
@@ -10943,8 +10947,8 @@
     </row>
     <row r="36" spans="1:12" ht="13.5" thickBot="1">
       <c r="A36" s="140"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="131"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
       <c r="D36" s="29" t="s">
         <v>108</v>
       </c>
@@ -10967,10 +10971,10 @@
     </row>
     <row r="37" spans="1:12" ht="13.5" thickBot="1">
       <c r="A37" s="140"/>
-      <c r="B37" s="131" t="s">
+      <c r="B37" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="131"/>
+      <c r="C37" s="135"/>
       <c r="D37" s="29" t="s">
         <v>111</v>
       </c>
@@ -10993,8 +10997,8 @@
     </row>
     <row r="38" spans="1:12" ht="13.5" thickBot="1">
       <c r="A38" s="140"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="131"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
       <c r="D38" s="29" t="s">
         <v>113</v>
       </c>
@@ -11017,10 +11021,10 @@
     </row>
     <row r="39" spans="1:12" ht="13.5" thickBot="1">
       <c r="A39" s="140"/>
-      <c r="B39" s="134" t="s">
+      <c r="B39" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="134">
+      <c r="C39" s="133">
         <v>31</v>
       </c>
       <c r="D39" s="29" t="s">
@@ -11047,15 +11051,15 @@
     </row>
     <row r="40" spans="1:12" ht="13.5" thickBot="1">
       <c r="A40" s="140"/>
-      <c r="B40" s="134"/>
-      <c r="C40" s="134"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
       <c r="D40" s="29" t="s">
         <v>118</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="134"/>
+      <c r="F40" s="133"/>
       <c r="G40" s="29" t="s">
         <v>55</v>
       </c>
@@ -11071,15 +11075,15 @@
     </row>
     <row r="41" spans="1:12" ht="13.5" thickBot="1">
       <c r="A41" s="140"/>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
       <c r="D41" s="29" t="s">
         <v>121</v>
       </c>
       <c r="E41" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="134"/>
+      <c r="F41" s="133"/>
       <c r="G41" s="29" t="s">
         <v>89</v>
       </c>
@@ -11095,15 +11099,15 @@
     </row>
     <row r="42" spans="1:12" ht="13.5" thickBot="1">
       <c r="A42" s="140"/>
-      <c r="B42" s="134"/>
-      <c r="C42" s="134"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
       <c r="D42" s="29" t="s">
         <v>123</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="152"/>
+      <c r="F42" s="143"/>
       <c r="G42" s="29" t="s">
         <v>89</v>
       </c>
@@ -11149,15 +11153,15 @@
     </row>
     <row r="44" spans="1:12" ht="13.5" thickBot="1">
       <c r="A44" s="140"/>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
       <c r="D44" s="29" t="s">
         <v>127</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="134"/>
+      <c r="F44" s="133"/>
       <c r="G44" s="29" t="s">
         <v>55</v>
       </c>
@@ -11173,15 +11177,15 @@
     </row>
     <row r="45" spans="1:12" ht="13.5" thickBot="1">
       <c r="A45" s="140"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
       <c r="D45" s="29" t="s">
         <v>129</v>
       </c>
       <c r="E45" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="134"/>
+      <c r="F45" s="133"/>
       <c r="G45" s="29" t="s">
         <v>89</v>
       </c>
@@ -11197,15 +11201,15 @@
     </row>
     <row r="46" spans="1:12" ht="13.5" thickBot="1">
       <c r="A46" s="140"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
       <c r="D46" s="29" t="s">
         <v>130</v>
       </c>
       <c r="E46" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="152"/>
+      <c r="F46" s="143"/>
       <c r="G46" s="29" t="s">
         <v>89</v>
       </c>
@@ -11251,15 +11255,15 @@
     </row>
     <row r="48" spans="1:12" ht="13.5" thickBot="1">
       <c r="A48" s="140"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="134"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="133"/>
       <c r="D48" s="29" t="s">
         <v>134</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="134"/>
+      <c r="F48" s="133"/>
       <c r="G48" s="29" t="s">
         <v>55</v>
       </c>
@@ -11275,15 +11279,15 @@
     </row>
     <row r="49" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A49" s="140"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="134"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="133"/>
       <c r="D49" s="39" t="s">
         <v>136</v>
       </c>
       <c r="E49" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="134"/>
+      <c r="F49" s="133"/>
       <c r="G49" s="39" t="s">
         <v>89</v>
       </c>
@@ -11297,15 +11301,15 @@
     </row>
     <row r="50" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A50" s="140"/>
-      <c r="B50" s="134"/>
-      <c r="C50" s="134"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="133"/>
       <c r="D50" s="39" t="s">
         <v>138</v>
       </c>
       <c r="E50" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="152"/>
+      <c r="F50" s="143"/>
       <c r="G50" s="39" t="s">
         <v>89</v>
       </c>
@@ -11319,8 +11323,8 @@
     </row>
     <row r="51" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A51" s="140"/>
-      <c r="B51" s="152"/>
-      <c r="C51" s="152"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="143"/>
       <c r="D51" s="39" t="s">
         <v>140</v>
       </c>
@@ -11371,15 +11375,15 @@
     </row>
     <row r="53" spans="1:12" ht="13.5" thickBot="1">
       <c r="A53" s="140"/>
-      <c r="B53" s="134"/>
-      <c r="C53" s="134"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="133"/>
       <c r="D53" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="134"/>
+      <c r="F53" s="133"/>
       <c r="G53" s="29" t="s">
         <v>55</v>
       </c>
@@ -11395,15 +11399,15 @@
     </row>
     <row r="54" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A54" s="140"/>
-      <c r="B54" s="134"/>
-      <c r="C54" s="134"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="133"/>
       <c r="D54" s="39" t="s">
         <v>147</v>
       </c>
       <c r="E54" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="134"/>
+      <c r="F54" s="133"/>
       <c r="G54" s="39" t="s">
         <v>89</v>
       </c>
@@ -11417,15 +11421,15 @@
     </row>
     <row r="55" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A55" s="140"/>
-      <c r="B55" s="134"/>
-      <c r="C55" s="134"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="133"/>
       <c r="D55" s="39" t="s">
         <v>149</v>
       </c>
       <c r="E55" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="152"/>
+      <c r="F55" s="143"/>
       <c r="G55" s="39" t="s">
         <v>89</v>
       </c>
@@ -11439,8 +11443,8 @@
     </row>
     <row r="56" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A56" s="140"/>
-      <c r="B56" s="152"/>
-      <c r="C56" s="152"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
       <c r="D56" s="39" t="s">
         <v>151</v>
       </c>
@@ -11461,10 +11465,10 @@
     </row>
     <row r="57" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A57" s="140"/>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="145" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="149">
+      <c r="C57" s="145">
         <v>31</v>
       </c>
       <c r="D57" s="39" t="s">
@@ -11473,7 +11477,7 @@
       <c r="E57" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="149" t="s">
+      <c r="F57" s="145" t="s">
         <v>47</v>
       </c>
       <c r="G57" s="39" t="s">
@@ -11489,15 +11493,15 @@
     </row>
     <row r="58" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A58" s="140"/>
-      <c r="B58" s="150"/>
-      <c r="C58" s="150"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="147"/>
       <c r="D58" s="39" t="s">
         <v>155</v>
       </c>
       <c r="E58" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="150"/>
+      <c r="F58" s="147"/>
       <c r="G58" s="39" t="s">
         <v>55</v>
       </c>
@@ -11511,15 +11515,15 @@
     </row>
     <row r="59" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A59" s="140"/>
-      <c r="B59" s="150"/>
-      <c r="C59" s="150"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="147"/>
       <c r="D59" s="39" t="s">
         <v>157</v>
       </c>
       <c r="E59" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="150"/>
+      <c r="F59" s="147"/>
       <c r="G59" s="39" t="s">
         <v>89</v>
       </c>
@@ -11533,15 +11537,15 @@
     </row>
     <row r="60" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A60" s="140"/>
-      <c r="B60" s="150"/>
-      <c r="C60" s="150"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="147"/>
       <c r="D60" s="39" t="s">
         <v>159</v>
       </c>
       <c r="E60" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="151"/>
+      <c r="F60" s="146"/>
       <c r="G60" s="39" t="s">
         <v>89</v>
       </c>
@@ -11555,8 +11559,8 @@
     </row>
     <row r="61" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A61" s="140"/>
-      <c r="B61" s="151"/>
-      <c r="C61" s="151"/>
+      <c r="B61" s="146"/>
+      <c r="C61" s="146"/>
       <c r="D61" s="39" t="s">
         <v>161</v>
       </c>
@@ -11577,10 +11581,10 @@
     </row>
     <row r="62" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A62" s="140"/>
-      <c r="B62" s="149" t="s">
+      <c r="B62" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="149">
+      <c r="C62" s="145">
         <v>30</v>
       </c>
       <c r="D62" s="39" t="s">
@@ -11589,7 +11593,7 @@
       <c r="E62" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="149" t="s">
+      <c r="F62" s="145" t="s">
         <v>47</v>
       </c>
       <c r="G62" s="39" t="s">
@@ -11605,15 +11609,15 @@
     </row>
     <row r="63" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A63" s="140"/>
-      <c r="B63" s="150"/>
-      <c r="C63" s="150"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="147"/>
       <c r="D63" s="39" t="s">
         <v>165</v>
       </c>
       <c r="E63" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="150"/>
+      <c r="F63" s="147"/>
       <c r="G63" s="39" t="s">
         <v>55</v>
       </c>
@@ -11627,15 +11631,15 @@
     </row>
     <row r="64" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A64" s="140"/>
-      <c r="B64" s="150"/>
-      <c r="C64" s="150"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="147"/>
       <c r="D64" s="39" t="s">
         <v>167</v>
       </c>
       <c r="E64" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="150"/>
+      <c r="F64" s="147"/>
       <c r="G64" s="39" t="s">
         <v>89</v>
       </c>
@@ -11649,15 +11653,15 @@
     </row>
     <row r="65" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A65" s="140"/>
-      <c r="B65" s="150"/>
-      <c r="C65" s="150"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="147"/>
       <c r="D65" s="39" t="s">
         <v>169</v>
       </c>
       <c r="E65" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="151"/>
+      <c r="F65" s="146"/>
       <c r="G65" s="39" t="s">
         <v>89</v>
       </c>
@@ -11671,10 +11675,10 @@
     </row>
     <row r="66" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A66" s="140"/>
-      <c r="B66" s="149" t="s">
+      <c r="B66" s="145" t="s">
         <v>171</v>
       </c>
-      <c r="C66" s="149">
+      <c r="C66" s="145">
         <v>31</v>
       </c>
       <c r="D66" s="39" t="s">
@@ -11683,7 +11687,7 @@
       <c r="E66" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="149" t="s">
+      <c r="F66" s="145" t="s">
         <v>47</v>
       </c>
       <c r="G66" s="39" t="s">
@@ -11699,15 +11703,15 @@
     </row>
     <row r="67" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A67" s="140"/>
-      <c r="B67" s="150"/>
-      <c r="C67" s="150"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="147"/>
       <c r="D67" s="39" t="s">
         <v>174</v>
       </c>
       <c r="E67" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="150"/>
+      <c r="F67" s="147"/>
       <c r="G67" s="39" t="s">
         <v>55</v>
       </c>
@@ -11721,15 +11725,15 @@
     </row>
     <row r="68" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A68" s="140"/>
-      <c r="B68" s="150"/>
-      <c r="C68" s="150"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="147"/>
       <c r="D68" s="39" t="s">
         <v>176</v>
       </c>
       <c r="E68" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="150"/>
+      <c r="F68" s="147"/>
       <c r="G68" s="39" t="s">
         <v>89</v>
       </c>
@@ -11743,15 +11747,15 @@
     </row>
     <row r="69" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A69" s="140"/>
-      <c r="B69" s="150"/>
-      <c r="C69" s="150"/>
+      <c r="B69" s="147"/>
+      <c r="C69" s="147"/>
       <c r="D69" s="39" t="s">
         <v>178</v>
       </c>
       <c r="E69" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="151"/>
+      <c r="F69" s="146"/>
       <c r="G69" s="39" t="s">
         <v>89</v>
       </c>
@@ -11765,8 +11769,8 @@
     </row>
     <row r="70" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A70" s="140"/>
-      <c r="B70" s="151"/>
-      <c r="C70" s="151"/>
+      <c r="B70" s="146"/>
+      <c r="C70" s="146"/>
       <c r="D70" s="39" t="s">
         <v>179</v>
       </c>
@@ -11787,10 +11791,10 @@
     </row>
     <row r="71" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A71" s="140"/>
-      <c r="B71" s="149" t="s">
+      <c r="B71" s="145" t="s">
         <v>180</v>
       </c>
-      <c r="C71" s="149">
+      <c r="C71" s="145">
         <v>31</v>
       </c>
       <c r="D71" s="39" t="s">
@@ -11799,7 +11803,7 @@
       <c r="E71" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="149" t="s">
+      <c r="F71" s="145" t="s">
         <v>182</v>
       </c>
       <c r="G71" s="39" t="s">
@@ -11815,15 +11819,15 @@
     </row>
     <row r="72" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A72" s="140"/>
-      <c r="B72" s="150"/>
-      <c r="C72" s="150"/>
+      <c r="B72" s="147"/>
+      <c r="C72" s="147"/>
       <c r="D72" s="39" t="s">
         <v>184</v>
       </c>
       <c r="E72" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="150"/>
+      <c r="F72" s="147"/>
       <c r="G72" s="39" t="s">
         <v>55</v>
       </c>
@@ -11837,15 +11841,15 @@
     </row>
     <row r="73" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A73" s="140"/>
-      <c r="B73" s="150"/>
-      <c r="C73" s="150"/>
+      <c r="B73" s="147"/>
+      <c r="C73" s="147"/>
       <c r="D73" s="39" t="s">
         <v>186</v>
       </c>
       <c r="E73" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="150"/>
+      <c r="F73" s="147"/>
       <c r="G73" s="39" t="s">
         <v>89</v>
       </c>
@@ -11859,15 +11863,15 @@
     </row>
     <row r="74" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A74" s="140"/>
-      <c r="B74" s="150"/>
-      <c r="C74" s="150"/>
+      <c r="B74" s="147"/>
+      <c r="C74" s="147"/>
       <c r="D74" s="39" t="s">
         <v>188</v>
       </c>
       <c r="E74" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="151"/>
+      <c r="F74" s="146"/>
       <c r="G74" s="39" t="s">
         <v>89</v>
       </c>
@@ -11881,8 +11885,8 @@
     </row>
     <row r="75" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="A75" s="140"/>
-      <c r="B75" s="150"/>
-      <c r="C75" s="151"/>
+      <c r="B75" s="147"/>
+      <c r="C75" s="146"/>
       <c r="D75" s="39" t="s">
         <v>190</v>
       </c>
@@ -11903,10 +11907,10 @@
     </row>
     <row r="76" spans="1:12" ht="13.5" thickBot="1">
       <c r="A76" s="140"/>
-      <c r="B76" s="131" t="s">
+      <c r="B76" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="131">
+      <c r="C76" s="135">
         <v>32</v>
       </c>
       <c r="D76" s="6" t="s">
@@ -11933,8 +11937,8 @@
     </row>
     <row r="77" spans="1:12" ht="13.5" thickBot="1">
       <c r="A77" s="140"/>
-      <c r="B77" s="131"/>
-      <c r="C77" s="131"/>
+      <c r="B77" s="135"/>
+      <c r="C77" s="135"/>
       <c r="D77" s="6" t="s">
         <v>197</v>
       </c>
@@ -11959,8 +11963,8 @@
     </row>
     <row r="78" spans="1:12" ht="13.5" thickBot="1">
       <c r="A78" s="140"/>
-      <c r="B78" s="131"/>
-      <c r="C78" s="131"/>
+      <c r="B78" s="135"/>
+      <c r="C78" s="135"/>
       <c r="D78" s="6" t="s">
         <v>202</v>
       </c>
@@ -11985,8 +11989,8 @@
     </row>
     <row r="79" spans="1:12" ht="13.5" thickBot="1">
       <c r="A79" s="140"/>
-      <c r="B79" s="131"/>
-      <c r="C79" s="131"/>
+      <c r="B79" s="135"/>
+      <c r="C79" s="135"/>
       <c r="D79" s="6" t="s">
         <v>205</v>
       </c>
@@ -12040,7 +12044,7 @@
       <c r="L80" s="46"/>
     </row>
     <row r="81" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A81" s="147"/>
+      <c r="A81" s="153"/>
       <c r="B81" s="27" t="s">
         <v>213</v>
       </c>
@@ -12062,13 +12066,13 @@
       <c r="H81" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I81" s="134"/>
+      <c r="I81" s="133"/>
       <c r="J81" s="49" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A82" s="147"/>
+      <c r="A82" s="153"/>
       <c r="B82" s="27" t="s">
         <v>216</v>
       </c>
@@ -12090,13 +12094,13 @@
       <c r="H82" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I82" s="134"/>
+      <c r="I82" s="133"/>
       <c r="J82" s="49" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A83" s="147"/>
+      <c r="A83" s="153"/>
       <c r="B83" s="27" t="s">
         <v>219</v>
       </c>
@@ -12118,13 +12122,13 @@
       <c r="H83" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I83" s="134"/>
+      <c r="I83" s="133"/>
       <c r="J83" s="49" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A84" s="147"/>
+      <c r="A84" s="153"/>
       <c r="B84" s="27" t="s">
         <v>222</v>
       </c>
@@ -12146,7 +12150,7 @@
       <c r="H84" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I84" s="134"/>
+      <c r="I84" s="133"/>
       <c r="J84" s="50" t="s">
         <v>224</v>
       </c>
@@ -12154,7 +12158,7 @@
       <c r="L84" s="51"/>
     </row>
     <row r="85" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A85" s="147"/>
+      <c r="A85" s="153"/>
       <c r="B85" s="27" t="s">
         <v>225</v>
       </c>
@@ -12176,7 +12180,7 @@
       <c r="H85" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I85" s="134"/>
+      <c r="I85" s="133"/>
       <c r="J85" s="50" t="s">
         <v>227</v>
       </c>
@@ -12184,7 +12188,7 @@
       <c r="L85" s="31"/>
     </row>
     <row r="86" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A86" s="147"/>
+      <c r="A86" s="153"/>
       <c r="B86" s="27" t="s">
         <v>228</v>
       </c>
@@ -12206,7 +12210,7 @@
       <c r="H86" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I86" s="134"/>
+      <c r="I86" s="133"/>
       <c r="J86" s="50" t="s">
         <v>230</v>
       </c>
@@ -12214,7 +12218,7 @@
       <c r="L86" s="51"/>
     </row>
     <row r="87" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A87" s="148"/>
+      <c r="A87" s="154"/>
       <c r="B87" s="52" t="s">
         <v>231</v>
       </c>
@@ -12234,7 +12238,7 @@
         <v>48</v>
       </c>
       <c r="H87" s="40"/>
-      <c r="I87" s="134"/>
+      <c r="I87" s="133"/>
       <c r="J87" s="54" t="s">
         <v>233</v>
       </c>
@@ -12242,7 +12246,7 @@
       <c r="L87" s="41"/>
     </row>
     <row r="88" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A88" s="147"/>
+      <c r="A88" s="153"/>
       <c r="B88" s="27" t="s">
         <v>234</v>
       </c>
@@ -12264,7 +12268,7 @@
       <c r="H88" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I88" s="134"/>
+      <c r="I88" s="133"/>
       <c r="J88" s="49" t="s">
         <v>224</v>
       </c>
@@ -12272,7 +12276,7 @@
       <c r="L88" s="51"/>
     </row>
     <row r="89" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A89" s="147"/>
+      <c r="A89" s="153"/>
       <c r="B89" s="28" t="s">
         <v>236</v>
       </c>
@@ -12294,14 +12298,14 @@
       <c r="H89" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I89" s="134"/>
+      <c r="I89" s="133"/>
       <c r="J89" s="50" t="s">
         <v>238</v>
       </c>
       <c r="K89" s="29"/>
     </row>
     <row r="90" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A90" s="147"/>
+      <c r="A90" s="153"/>
       <c r="B90" s="28" t="s">
         <v>239</v>
       </c>
@@ -12323,7 +12327,7 @@
       <c r="H90" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I90" s="134"/>
+      <c r="I90" s="133"/>
       <c r="J90" s="50" t="s">
         <v>241</v>
       </c>
@@ -12331,7 +12335,7 @@
       <c r="L90" s="51"/>
     </row>
     <row r="91" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A91" s="148"/>
+      <c r="A91" s="154"/>
       <c r="B91" s="52" t="s">
         <v>242</v>
       </c>
@@ -12351,7 +12355,7 @@
         <v>48</v>
       </c>
       <c r="H91" s="40"/>
-      <c r="I91" s="134"/>
+      <c r="I91" s="133"/>
       <c r="J91" s="54" t="s">
         <v>233</v>
       </c>
@@ -12359,7 +12363,7 @@
       <c r="L91" s="41"/>
     </row>
     <row r="92" spans="1:12" s="18" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A92" s="148"/>
+      <c r="A92" s="154"/>
       <c r="B92" s="53" t="s">
         <v>244</v>
       </c>
@@ -12379,7 +12383,7 @@
         <v>48</v>
       </c>
       <c r="H92" s="40"/>
-      <c r="I92" s="134"/>
+      <c r="I92" s="133"/>
       <c r="J92" s="54" t="s">
         <v>246</v>
       </c>
@@ -12387,7 +12391,7 @@
       <c r="L92" s="56"/>
     </row>
     <row r="93" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A93" s="148"/>
+      <c r="A93" s="154"/>
       <c r="B93" s="28" t="s">
         <v>247</v>
       </c>
@@ -12409,7 +12413,7 @@
       <c r="H93" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I93" s="134"/>
+      <c r="I93" s="133"/>
       <c r="J93" s="49" t="s">
         <v>249</v>
       </c>
@@ -12417,7 +12421,7 @@
       <c r="L93" s="31"/>
     </row>
     <row r="94" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A94" s="148"/>
+      <c r="A94" s="154"/>
       <c r="B94" s="28" t="s">
         <v>250</v>
       </c>
@@ -12439,7 +12443,7 @@
       <c r="H94" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I94" s="134"/>
+      <c r="I94" s="133"/>
       <c r="J94" s="49" t="s">
         <v>252</v>
       </c>
@@ -12447,7 +12451,7 @@
       <c r="L94" s="31"/>
     </row>
     <row r="95" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A95" s="148"/>
+      <c r="A95" s="154"/>
       <c r="B95" s="28" t="s">
         <v>253</v>
       </c>
@@ -12469,7 +12473,7 @@
       <c r="H95" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I95" s="134"/>
+      <c r="I95" s="133"/>
       <c r="J95" s="49" t="s">
         <v>255</v>
       </c>
@@ -12477,7 +12481,7 @@
       <c r="L95" s="31"/>
     </row>
     <row r="96" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A96" s="148"/>
+      <c r="A96" s="154"/>
       <c r="B96" s="28" t="s">
         <v>256</v>
       </c>
@@ -12499,7 +12503,7 @@
       <c r="H96" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I96" s="134"/>
+      <c r="I96" s="133"/>
       <c r="J96" s="50" t="s">
         <v>258</v>
       </c>
@@ -12507,7 +12511,7 @@
       <c r="L96" s="51"/>
     </row>
     <row r="97" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A97" s="148"/>
+      <c r="A97" s="154"/>
       <c r="B97" s="28" t="s">
         <v>259</v>
       </c>
@@ -12529,7 +12533,7 @@
       <c r="H97" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I97" s="134"/>
+      <c r="I97" s="133"/>
       <c r="J97" s="49" t="s">
         <v>261</v>
       </c>
@@ -12537,7 +12541,7 @@
       <c r="L97" s="51"/>
     </row>
     <row r="98" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A98" s="148"/>
+      <c r="A98" s="154"/>
       <c r="B98" s="28" t="s">
         <v>262</v>
       </c>
@@ -12559,7 +12563,7 @@
       <c r="H98" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I98" s="134"/>
+      <c r="I98" s="133"/>
       <c r="J98" s="49" t="s">
         <v>264</v>
       </c>
@@ -12567,7 +12571,7 @@
       <c r="L98" s="51"/>
     </row>
     <row r="99" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A99" s="148"/>
+      <c r="A99" s="154"/>
       <c r="B99" s="28" t="s">
         <v>265</v>
       </c>
@@ -12589,7 +12593,7 @@
       <c r="H99" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I99" s="134"/>
+      <c r="I99" s="133"/>
       <c r="J99" s="49" t="s">
         <v>267</v>
       </c>
@@ -12597,7 +12601,7 @@
       <c r="L99" s="51"/>
     </row>
     <row r="100" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A100" s="144" t="s">
+      <c r="A100" s="150" t="s">
         <v>268</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -12621,7 +12625,7 @@
       <c r="H100" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I100" s="146" t="s">
+      <c r="I100" s="152" t="s">
         <v>271</v>
       </c>
       <c r="J100" s="6" t="s">
@@ -12631,7 +12635,7 @@
       <c r="L100" s="6"/>
     </row>
     <row r="101" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A101" s="145"/>
+      <c r="A101" s="151"/>
       <c r="B101" s="28" t="s">
         <v>273</v>
       </c>
@@ -12653,7 +12657,7 @@
       <c r="H101" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I101" s="146"/>
+      <c r="I101" s="152"/>
       <c r="J101" s="6" t="s">
         <v>275</v>
       </c>
@@ -12661,7 +12665,7 @@
       <c r="L101" s="6"/>
     </row>
     <row r="102" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A102" s="145"/>
+      <c r="A102" s="151"/>
       <c r="B102" s="28" t="s">
         <v>276</v>
       </c>
@@ -12683,7 +12687,7 @@
       <c r="H102" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I102" s="146"/>
+      <c r="I102" s="152"/>
       <c r="J102" s="6" t="s">
         <v>278</v>
       </c>
@@ -12691,7 +12695,7 @@
       <c r="L102" s="6"/>
     </row>
     <row r="103" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A103" s="145"/>
+      <c r="A103" s="151"/>
       <c r="B103" s="28" t="s">
         <v>279</v>
       </c>
@@ -12713,7 +12717,7 @@
       <c r="H103" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I103" s="146"/>
+      <c r="I103" s="152"/>
       <c r="J103" s="6" t="s">
         <v>281</v>
       </c>
@@ -12721,7 +12725,7 @@
       <c r="L103" s="6"/>
     </row>
     <row r="104" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A104" s="145"/>
+      <c r="A104" s="151"/>
       <c r="B104" s="28" t="s">
         <v>282</v>
       </c>
@@ -12743,7 +12747,7 @@
       <c r="H104" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I104" s="146"/>
+      <c r="I104" s="152"/>
       <c r="J104" s="6" t="s">
         <v>284</v>
       </c>
@@ -12751,7 +12755,7 @@
       <c r="L104" s="6"/>
     </row>
     <row r="105" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A105" s="145"/>
+      <c r="A105" s="151"/>
       <c r="B105" s="28" t="s">
         <v>285</v>
       </c>
@@ -12773,7 +12777,7 @@
       <c r="H105" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I105" s="146"/>
+      <c r="I105" s="152"/>
       <c r="J105" s="6" t="s">
         <v>287</v>
       </c>
@@ -12781,7 +12785,7 @@
       <c r="L105" s="6"/>
     </row>
     <row r="106" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A106" s="145"/>
+      <c r="A106" s="151"/>
       <c r="B106" s="28" t="s">
         <v>288</v>
       </c>
@@ -12803,7 +12807,7 @@
       <c r="H106" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I106" s="146"/>
+      <c r="I106" s="152"/>
       <c r="J106" s="6" t="s">
         <v>290</v>
       </c>
@@ -12811,7 +12815,7 @@
       <c r="L106" s="6"/>
     </row>
     <row r="107" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A107" s="145"/>
+      <c r="A107" s="151"/>
       <c r="B107" s="28" t="s">
         <v>291</v>
       </c>
@@ -12833,7 +12837,7 @@
       <c r="H107" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I107" s="146"/>
+      <c r="I107" s="152"/>
       <c r="J107" s="6" t="s">
         <v>293</v>
       </c>
@@ -12841,7 +12845,7 @@
       <c r="L107" s="6"/>
     </row>
     <row r="108" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A108" s="145"/>
+      <c r="A108" s="151"/>
       <c r="B108" s="28" t="s">
         <v>294</v>
       </c>
@@ -12863,7 +12867,7 @@
       <c r="H108" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I108" s="146"/>
+      <c r="I108" s="152"/>
       <c r="J108" s="6" t="s">
         <v>296</v>
       </c>
@@ -12871,7 +12875,7 @@
       <c r="L108" s="6"/>
     </row>
     <row r="109" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A109" s="145"/>
+      <c r="A109" s="151"/>
       <c r="B109" s="28" t="s">
         <v>297</v>
       </c>
@@ -12893,7 +12897,7 @@
       <c r="H109" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I109" s="146"/>
+      <c r="I109" s="152"/>
       <c r="J109" s="6" t="s">
         <v>299</v>
       </c>
@@ -12901,7 +12905,7 @@
       <c r="L109" s="6"/>
     </row>
     <row r="110" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A110" s="145"/>
+      <c r="A110" s="151"/>
       <c r="B110" s="28" t="s">
         <v>300</v>
       </c>
@@ -12923,7 +12927,7 @@
       <c r="H110" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I110" s="146"/>
+      <c r="I110" s="152"/>
       <c r="J110" s="6" t="s">
         <v>224</v>
       </c>
@@ -12931,7 +12935,7 @@
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A111" s="145"/>
+      <c r="A111" s="151"/>
       <c r="B111" s="57" t="s">
         <v>302</v>
       </c>
@@ -12953,7 +12957,7 @@
       <c r="H111" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I111" s="146"/>
+      <c r="I111" s="152"/>
       <c r="J111" s="6" t="s">
         <v>304</v>
       </c>
@@ -12961,7 +12965,7 @@
       <c r="L111" s="58"/>
     </row>
     <row r="112" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A112" s="145"/>
+      <c r="A112" s="151"/>
       <c r="B112" s="28" t="s">
         <v>305</v>
       </c>
@@ -12983,7 +12987,7 @@
       <c r="H112" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I112" s="146"/>
+      <c r="I112" s="152"/>
       <c r="J112" s="6" t="s">
         <v>307</v>
       </c>
@@ -12991,7 +12995,7 @@
       <c r="L112" s="6"/>
     </row>
     <row r="113" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A113" s="145"/>
+      <c r="A113" s="151"/>
       <c r="B113" s="57" t="s">
         <v>308</v>
       </c>
@@ -13013,7 +13017,7 @@
       <c r="H113" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I113" s="146"/>
+      <c r="I113" s="152"/>
       <c r="J113" s="6" t="s">
         <v>310</v>
       </c>
@@ -13021,7 +13025,7 @@
       <c r="L113" s="6"/>
     </row>
     <row r="114" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A114" s="145"/>
+      <c r="A114" s="151"/>
       <c r="B114" s="57" t="s">
         <v>311</v>
       </c>
@@ -13043,7 +13047,7 @@
       <c r="H114" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I114" s="146"/>
+      <c r="I114" s="152"/>
       <c r="J114" s="6" t="s">
         <v>313</v>
       </c>
@@ -13051,7 +13055,7 @@
       <c r="L114" s="6"/>
     </row>
     <row r="115" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A115" s="145"/>
+      <c r="A115" s="151"/>
       <c r="B115" s="57" t="s">
         <v>314</v>
       </c>
@@ -13073,7 +13077,7 @@
       <c r="H115" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I115" s="146"/>
+      <c r="I115" s="152"/>
       <c r="J115" s="6" t="s">
         <v>316</v>
       </c>
@@ -13081,7 +13085,7 @@
       <c r="L115" s="6"/>
     </row>
     <row r="116" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A116" s="145"/>
+      <c r="A116" s="151"/>
       <c r="B116" s="57" t="s">
         <v>317</v>
       </c>
@@ -13103,7 +13107,7 @@
       <c r="H116" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I116" s="146"/>
+      <c r="I116" s="152"/>
       <c r="J116" s="6" t="s">
         <v>319</v>
       </c>
@@ -13111,7 +13115,7 @@
       <c r="L116" s="6"/>
     </row>
     <row r="117" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A117" s="145"/>
+      <c r="A117" s="151"/>
       <c r="B117" s="57" t="s">
         <v>320</v>
       </c>
@@ -13133,7 +13137,7 @@
       <c r="H117" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I117" s="146"/>
+      <c r="I117" s="152"/>
       <c r="J117" s="6" t="s">
         <v>322</v>
       </c>
@@ -13141,7 +13145,7 @@
       <c r="L117" s="6"/>
     </row>
     <row r="118" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A118" s="145"/>
+      <c r="A118" s="151"/>
       <c r="B118" s="57" t="s">
         <v>323</v>
       </c>
@@ -13163,7 +13167,7 @@
       <c r="H118" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I118" s="146"/>
+      <c r="I118" s="152"/>
       <c r="J118" s="6" t="s">
         <v>325</v>
       </c>
@@ -13171,7 +13175,7 @@
       <c r="L118" s="6"/>
     </row>
     <row r="119" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A119" s="145"/>
+      <c r="A119" s="151"/>
       <c r="B119" s="57" t="s">
         <v>326</v>
       </c>
@@ -13193,7 +13197,7 @@
       <c r="H119" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I119" s="146"/>
+      <c r="I119" s="152"/>
       <c r="J119" s="6" t="s">
         <v>328</v>
       </c>
@@ -13201,7 +13205,7 @@
       <c r="L119" s="6"/>
     </row>
     <row r="120" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A120" s="145"/>
+      <c r="A120" s="151"/>
       <c r="B120" s="57" t="s">
         <v>329</v>
       </c>
@@ -13223,7 +13227,7 @@
       <c r="H120" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I120" s="146"/>
+      <c r="I120" s="152"/>
       <c r="J120" s="6" t="s">
         <v>331</v>
       </c>
@@ -13231,7 +13235,7 @@
       <c r="L120" s="6"/>
     </row>
     <row r="121" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A121" s="145"/>
+      <c r="A121" s="151"/>
       <c r="B121" s="57" t="s">
         <v>332</v>
       </c>
@@ -13253,7 +13257,7 @@
       <c r="H121" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I121" s="146"/>
+      <c r="I121" s="152"/>
       <c r="J121" s="6" t="s">
         <v>334</v>
       </c>
@@ -13261,7 +13265,7 @@
       <c r="L121" s="6"/>
     </row>
     <row r="122" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A122" s="145"/>
+      <c r="A122" s="151"/>
       <c r="B122" s="57" t="s">
         <v>335</v>
       </c>
@@ -13283,7 +13287,7 @@
       <c r="H122" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I122" s="146"/>
+      <c r="I122" s="152"/>
       <c r="J122" s="6" t="s">
         <v>337</v>
       </c>
@@ -13291,7 +13295,7 @@
       <c r="L122" s="6"/>
     </row>
     <row r="123" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A123" s="145"/>
+      <c r="A123" s="151"/>
       <c r="B123" s="57" t="s">
         <v>338</v>
       </c>
@@ -13313,7 +13317,7 @@
       <c r="H123" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I123" s="146"/>
+      <c r="I123" s="152"/>
       <c r="J123" s="48" t="s">
         <v>340</v>
       </c>
@@ -13321,7 +13325,7 @@
       <c r="L123" s="6"/>
     </row>
     <row r="124" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A124" s="145"/>
+      <c r="A124" s="151"/>
       <c r="B124" s="57" t="s">
         <v>341</v>
       </c>
@@ -13343,7 +13347,7 @@
       <c r="H124" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I124" s="146"/>
+      <c r="I124" s="152"/>
       <c r="J124" s="6" t="s">
         <v>343</v>
       </c>
@@ -13351,7 +13355,7 @@
       <c r="L124" s="6"/>
     </row>
     <row r="125" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A125" s="145"/>
+      <c r="A125" s="151"/>
       <c r="B125" s="57" t="s">
         <v>344</v>
       </c>
@@ -13373,7 +13377,7 @@
       <c r="H125" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I125" s="146"/>
+      <c r="I125" s="152"/>
       <c r="J125" s="6" t="s">
         <v>346</v>
       </c>
@@ -13381,7 +13385,7 @@
       <c r="L125" s="6"/>
     </row>
     <row r="126" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A126" s="145"/>
+      <c r="A126" s="151"/>
       <c r="B126" s="57" t="s">
         <v>347</v>
       </c>
@@ -13403,7 +13407,7 @@
       <c r="H126" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I126" s="146"/>
+      <c r="I126" s="152"/>
       <c r="J126" s="6" t="s">
         <v>349</v>
       </c>
@@ -13411,7 +13415,7 @@
       <c r="L126" s="6"/>
     </row>
     <row r="130" spans="3:6">
-      <c r="C130" s="142" t="s">
+      <c r="C130" s="148" t="s">
         <v>350</v>
       </c>
       <c r="D130" s="59" t="s">
@@ -13422,7 +13426,7 @@
       </c>
     </row>
     <row r="131" spans="3:6">
-      <c r="C131" s="143"/>
+      <c r="C131" s="149"/>
       <c r="D131" s="59" t="s">
         <v>352</v>
       </c>
@@ -13431,7 +13435,7 @@
       </c>
     </row>
     <row r="133" spans="3:6">
-      <c r="C133" s="142" t="s">
+      <c r="C133" s="148" t="s">
         <v>354</v>
       </c>
       <c r="D133" s="59" t="s">
@@ -13442,7 +13446,7 @@
       </c>
     </row>
     <row r="134" spans="3:6">
-      <c r="C134" s="143"/>
+      <c r="C134" s="149"/>
       <c r="D134" s="59" t="s">
         <v>356</v>
       </c>
@@ -13451,7 +13455,7 @@
       </c>
     </row>
     <row r="136" spans="3:6">
-      <c r="C136" s="142" t="s">
+      <c r="C136" s="148" t="s">
         <v>357</v>
       </c>
       <c r="D136" s="59" t="s">
@@ -13462,7 +13466,7 @@
       </c>
     </row>
     <row r="137" spans="3:6">
-      <c r="C137" s="143"/>
+      <c r="C137" s="149"/>
       <c r="D137" s="59" t="s">
         <v>359</v>
       </c>
@@ -13471,7 +13475,7 @@
       </c>
     </row>
     <row r="139" spans="3:6">
-      <c r="C139" s="142" t="s">
+      <c r="C139" s="148" t="s">
         <v>361</v>
       </c>
       <c r="D139" s="59" t="s">
@@ -13482,7 +13486,7 @@
       </c>
     </row>
     <row r="140" spans="3:6">
-      <c r="C140" s="143"/>
+      <c r="C140" s="149"/>
       <c r="D140" s="59" t="s">
         <v>363</v>
       </c>
@@ -13491,7 +13495,7 @@
       </c>
     </row>
     <row r="142" spans="3:6">
-      <c r="C142" s="142" t="s">
+      <c r="C142" s="148" t="s">
         <v>364</v>
       </c>
       <c r="D142" s="59" t="s">
@@ -13502,7 +13506,7 @@
       </c>
     </row>
     <row r="143" spans="3:6">
-      <c r="C143" s="143"/>
+      <c r="C143" s="149"/>
       <c r="D143" s="59" t="s">
         <v>366</v>
       </c>
@@ -13511,7 +13515,7 @@
       </c>
     </row>
     <row r="145" spans="3:6">
-      <c r="C145" s="142" t="s">
+      <c r="C145" s="148" t="s">
         <v>367</v>
       </c>
       <c r="D145" s="59" t="s">
@@ -13522,7 +13526,7 @@
       </c>
     </row>
     <row r="146" spans="3:6">
-      <c r="C146" s="143"/>
+      <c r="C146" s="149"/>
       <c r="D146" s="59" t="s">
         <v>369</v>
       </c>
@@ -13537,6 +13541,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="I81:I99"/>
+    <mergeCell ref="A100:A126"/>
+    <mergeCell ref="I100:I126"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="A81:A99"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:A80"/>
     <mergeCell ref="B3:B12"/>
@@ -13553,55 +13606,6 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="I81:I99"/>
-    <mergeCell ref="A100:A126"/>
-    <mergeCell ref="I100:I126"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="A81:A99"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Exceltestfiles/mi_cmd - 副本.xlsx
+++ b/Exceltestfiles/mi_cmd - 副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xjh_program\vs_program\c#\winformapp\ExcelConvert\Exceltestfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D0F64-9AF7-4619-BC20-0FAAC1F04316}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBCE7F1-F04D-44A9-8F03-C9A7B6269E6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B5CB11EF-3A4F-429E-B062-475C2C0FB261}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12435" windowHeight="14895" activeTab="1" xr2:uid="{B5CB11EF-3A4F-429E-B062-475C2C0FB261}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC3-VIN" sheetId="7" r:id="rId1"/>
@@ -4681,7 +4681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5146,6 +5146,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7997,7 +8003,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8078,19 +8084,19 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="58"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="155" t="s">
         <v>735</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="156"/>
+      <c r="D4" s="156" t="s">
         <v>744</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="156" t="s">
         <v>745</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58" t="s">
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156" t="s">
         <v>746</v>
       </c>
       <c r="I4" s="58"/>
@@ -8100,19 +8106,19 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="58"/>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="155" t="s">
         <v>422</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58" t="s">
+      <c r="C5" s="156"/>
+      <c r="D5" s="156" t="s">
         <v>793</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="156" t="s">
         <v>745</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58" t="s">
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156" t="s">
         <v>211</v>
       </c>
       <c r="I5" s="58"/>
@@ -8122,19 +8128,19 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="58"/>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58" t="s">
+      <c r="C6" s="156"/>
+      <c r="D6" s="156" t="s">
         <v>736</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="156" t="s">
         <v>747</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58" t="s">
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156" t="s">
         <v>380</v>
       </c>
       <c r="I6" s="58"/>
@@ -8144,19 +8150,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="58"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="155" t="s">
         <v>394</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58" t="s">
+      <c r="C7" s="156"/>
+      <c r="D7" s="156" t="s">
         <v>737</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="156" t="s">
         <v>745</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58" t="s">
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156" t="s">
         <v>211</v>
       </c>
       <c r="I7" s="58"/>
@@ -8166,19 +8172,19 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="58"/>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="155" t="s">
         <v>399</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58" t="s">
+      <c r="C8" s="156"/>
+      <c r="D8" s="156" t="s">
         <v>782</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="156" t="s">
         <v>745</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58" t="s">
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156" t="s">
         <v>211</v>
       </c>
       <c r="I8" s="58"/>
@@ -8188,19 +8194,19 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="58"/>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="155" t="s">
         <v>401</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58" t="s">
+      <c r="C9" s="156"/>
+      <c r="D9" s="156" t="s">
         <v>738</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="156" t="s">
         <v>747</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58" t="s">
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156" t="s">
         <v>211</v>
       </c>
       <c r="I9" s="58"/>
